--- a/server/reports/bid_RUSSEL01_53.xlsx
+++ b/server/reports/bid_RUSSEL01_53.xlsx
@@ -435,7 +435,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="18" width="10.7109375" customWidth="1"/>
+    <col min="3" max="18" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
